--- a/dados_tratados.xlsx
+++ b/dados_tratados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Área de Trabalho\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C270C319-06C9-4B44-A77E-C30C6A67B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE789017-1F9E-4920-83A2-C2FCF6262BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="150">
   <si>
     <t>Dia da semana</t>
   </si>
@@ -64,13 +64,13 @@
     <t>16:00</t>
   </si>
   <si>
-    <t>Manguinhos, Rio de Janeiro</t>
+    <t>Pilares, Rio de Janeiro</t>
   </si>
   <si>
     <t>motoboy</t>
   </si>
   <si>
-    <t>carne</t>
+    <t>Aves</t>
   </si>
   <si>
     <t>pequena</t>
@@ -85,10 +85,10 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>Maracanã, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>frango</t>
+    <t>Abolição, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Peixes</t>
   </si>
   <si>
     <t>média</t>
@@ -100,142 +100,130 @@
     <t>pix</t>
   </si>
   <si>
+    <t>Inhaúma, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>retirada</t>
+  </si>
+  <si>
+    <t>grande</t>
+  </si>
+  <si>
+    <t>legumes refogados, feijão, purê de batata</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>Engenho de Dentro, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>feijão, arroz, legumes refogados</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
     <t>Madureira, Rio de Janeiro</t>
   </si>
   <si>
-    <t>retirada</t>
-  </si>
-  <si>
-    <t>peixe</t>
-  </si>
-  <si>
-    <t>grande</t>
-  </si>
-  <si>
-    <t>legumes refogados, feijão, purê de batata</t>
-  </si>
-  <si>
-    <t>13:00</t>
+    <t>Bovino</t>
+  </si>
+  <si>
+    <t>batata frita, purê de batata, legumes refogados</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>legumes refogados, arroz, salada</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Coelho Neto, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>feijão, purê de batata, arroz</t>
+  </si>
+  <si>
+    <t>Cachambi, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>purê de batata, batata frita, legumes refogados</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>salada, batata frita, legumes refogados</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>arroz, legumes refogados, purê de batata</t>
+  </si>
+  <si>
+    <t>feijão, batata frita, salada</t>
+  </si>
+  <si>
+    <t>feijão, legumes refogados, purê de batata</t>
+  </si>
+  <si>
+    <t>Suino</t>
+  </si>
+  <si>
+    <t>arroz, purê de batata, legumes refogados</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>legumes refogados, batata frita, feijão</t>
+  </si>
+  <si>
+    <t>legumes refogados, purê de batata, salada</t>
+  </si>
+  <si>
+    <t>batata frita, purê de batata, arroz</t>
+  </si>
+  <si>
+    <t>Cascadura, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>feijão, legumes refogados, arroz</t>
+  </si>
+  <si>
+    <t>Todos os Santos, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>salada, arroz, batata frita</t>
+  </si>
+  <si>
+    <t>batata frita, feijão, arroz</t>
+  </si>
+  <si>
+    <t>legumes refogados, batata frita, salada</t>
+  </si>
+  <si>
+    <t>feijão, legumes refogados, batata frita</t>
   </si>
   <si>
     <t>Méier, Rio de Janeiro</t>
   </si>
   <si>
-    <t>feijão, arroz, legumes refogados</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Tijuca, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>batata frita, purê de batata, legumes refogados</t>
-  </si>
-  <si>
-    <t>dinheiro</t>
-  </si>
-  <si>
-    <t>legumes refogados, arroz, salada</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>São Cristóvão, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>vegetariana</t>
-  </si>
-  <si>
-    <t>feijão, purê de batata, arroz</t>
+    <t>feijão, purê de batata, salada</t>
+  </si>
+  <si>
+    <t>arroz, purê de batata, salada</t>
+  </si>
+  <si>
+    <t>salada, batata frita, feijão</t>
   </si>
   <si>
     <t>Del Castilho, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>purê de batata, batata frita, legumes refogados</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>Piedade, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>salada, batata frita, legumes refogados</t>
-  </si>
-  <si>
-    <t>Vila Isabel, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>Engenho de Dentro, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>arroz, legumes refogados, purê de batata</t>
-  </si>
-  <si>
-    <t>Inhaúma, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>feijão, batata frita, salada</t>
-  </si>
-  <si>
-    <t>feijão, legumes refogados, purê de batata</t>
-  </si>
-  <si>
-    <t>arroz, purê de batata, legumes refogados</t>
-  </si>
-  <si>
-    <t>Terça-feira</t>
-  </si>
-  <si>
-    <t>Pilares, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>legumes refogados, batata frita, feijão</t>
-  </si>
-  <si>
-    <t>legumes refogados, purê de batata, salada</t>
-  </si>
-  <si>
-    <t>Oswaldo Cruz, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>batata frita, purê de batata, arroz</t>
-  </si>
-  <si>
-    <t>feijão, legumes refogados, arroz</t>
-  </si>
-  <si>
-    <t>Jacarepaguá, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>salada, arroz, batata frita</t>
-  </si>
-  <si>
-    <t>Tomás Coelho, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>batata frita, feijão, arroz</t>
-  </si>
-  <si>
-    <t>legumes refogados, batata frita, salada</t>
-  </si>
-  <si>
-    <t>feijão, legumes refogados, batata frita</t>
-  </si>
-  <si>
-    <t>feijão, purê de batata, salada</t>
-  </si>
-  <si>
-    <t>arroz, purê de batata, salada</t>
-  </si>
-  <si>
-    <t>salada, batata frita, feijão</t>
   </si>
   <si>
     <t>purê de batata, batata frita, salada</t>
@@ -846,24 +834,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -994,13 +971,13 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -1023,22 +1000,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -1061,16 +1038,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1102,13 +1079,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1146,13 +1123,13 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1178,7 +1155,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1190,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>26</v>
@@ -1213,22 +1190,22 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
       </c>
       <c r="H10">
         <v>26</v>
@@ -1251,16 +1228,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -1289,22 +1266,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>26</v>
@@ -1327,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1342,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>26</v>
@@ -1365,22 +1342,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H14">
         <v>16</v>
@@ -1403,22 +1380,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H15">
         <v>20</v>
@@ -1438,25 +1415,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>26</v>
@@ -1476,25 +1453,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1514,25 +1491,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1552,22 +1529,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -1590,25 +1567,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -1628,25 +1605,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>16</v>
@@ -1666,13 +1643,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1704,25 +1681,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23">
         <v>16</v>
@@ -1742,25 +1719,25 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>26</v>
@@ -1780,25 +1757,25 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -1818,25 +1795,25 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H26">
         <v>16</v>
@@ -1856,10 +1833,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -1868,13 +1845,13 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>20</v>
@@ -1894,25 +1871,25 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28">
         <v>26</v>
@@ -1932,22 +1909,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
         <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -1970,13 +1947,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -1988,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H30">
         <v>20</v>
@@ -2008,25 +1985,25 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H31">
         <v>16</v>
@@ -2046,25 +2023,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H32">
         <v>16</v>
@@ -2084,25 +2061,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <v>20</v>
@@ -2122,25 +2099,25 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -2160,25 +2137,25 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H35">
         <v>16</v>
@@ -2198,25 +2175,25 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H36">
         <v>26</v>
@@ -2236,25 +2213,25 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H37">
         <v>20</v>
@@ -2274,25 +2251,25 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H38">
         <v>20</v>
@@ -2312,25 +2289,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H39">
         <v>20</v>
@@ -2350,25 +2327,25 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H40">
         <v>20</v>
@@ -2388,13 +2365,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -2406,7 +2383,7 @@
         <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H41">
         <v>20</v>
@@ -2426,25 +2403,25 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H42">
         <v>26</v>
@@ -2464,13 +2441,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -2482,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H43">
         <v>20</v>
@@ -2502,25 +2479,25 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H44">
         <v>16</v>
@@ -2540,13 +2517,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -2558,7 +2535,7 @@
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H45">
         <v>20</v>
@@ -2578,25 +2555,25 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H46">
         <v>16</v>
@@ -2616,25 +2593,25 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>20</v>
@@ -2654,25 +2631,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
         <v>28</v>
       </c>
-      <c r="F48" t="s">
-        <v>29</v>
-      </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H48">
         <v>20</v>
@@ -2692,25 +2669,25 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
         <v>28</v>
       </c>
-      <c r="F49" t="s">
-        <v>29</v>
-      </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>26</v>
@@ -2730,25 +2707,25 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
         <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>88</v>
       </c>
       <c r="H50">
         <v>26</v>
@@ -2768,10 +2745,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -2780,13 +2757,13 @@
         <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -2806,13 +2783,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -2821,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
@@ -2844,13 +2821,13 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -2859,10 +2836,10 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -2882,25 +2859,25 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
         <v>28</v>
       </c>
-      <c r="F54" t="s">
-        <v>29</v>
-      </c>
       <c r="G54" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H54">
         <v>26</v>
@@ -2920,25 +2897,25 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>20</v>
@@ -2958,25 +2935,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H56">
         <v>20</v>
@@ -2996,25 +2973,25 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H57">
         <v>26</v>
@@ -3034,25 +3011,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H58">
         <v>26</v>
@@ -3072,25 +3049,25 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -3110,25 +3087,25 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
         <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" t="s">
-        <v>41</v>
       </c>
       <c r="F60" t="s">
         <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H60">
         <v>26</v>
@@ -3148,25 +3125,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
         <v>28</v>
       </c>
-      <c r="F61" t="s">
-        <v>29</v>
-      </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H61">
         <v>20</v>
@@ -3186,25 +3163,25 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H62">
         <v>26</v>
@@ -3224,19 +3201,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
@@ -3262,25 +3239,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H64">
         <v>16</v>
@@ -3300,25 +3277,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H65">
         <v>26</v>
@@ -3338,25 +3315,25 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H66">
         <v>20</v>
@@ -3376,13 +3353,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3391,7 +3368,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -3414,25 +3391,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>39</v>
       </c>
       <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
         <v>35</v>
       </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
-      </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>26</v>
@@ -3452,25 +3429,25 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
         <v>28</v>
       </c>
-      <c r="F69" t="s">
-        <v>29</v>
-      </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H69">
         <v>26</v>
@@ -3490,25 +3467,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H70">
         <v>20</v>
@@ -3528,25 +3505,25 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
         <v>28</v>
       </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>20</v>
@@ -3566,25 +3543,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H72">
         <v>26</v>
@@ -3604,25 +3581,25 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H73">
         <v>16</v>
@@ -3642,25 +3619,25 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H74">
         <v>20</v>
@@ -3680,13 +3657,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
@@ -3698,7 +3675,7 @@
         <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H75">
         <v>26</v>
@@ -3718,25 +3695,25 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H76">
         <v>16</v>
@@ -3756,13 +3733,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -3774,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>26</v>
@@ -3794,25 +3771,25 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H78">
         <v>20</v>
@@ -3832,25 +3809,25 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
         <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H79">
         <v>20</v>
@@ -3870,13 +3847,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
@@ -3885,10 +3862,10 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <v>26</v>
@@ -3908,25 +3885,25 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
         <v>28</v>
       </c>
-      <c r="F81" t="s">
-        <v>29</v>
-      </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H81">
         <v>26</v>
@@ -3946,25 +3923,25 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H82">
         <v>20</v>
@@ -3984,25 +3961,25 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
         <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H83">
         <v>20</v>
@@ -4022,25 +3999,25 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H84">
         <v>16</v>
@@ -4060,25 +4037,25 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
         <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s">
-        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H85">
         <v>26</v>
@@ -4098,13 +4075,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
@@ -4113,10 +4090,10 @@
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H86">
         <v>20</v>
@@ -4136,25 +4113,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H87">
         <v>26</v>
@@ -4174,25 +4151,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
         <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H88">
         <v>26</v>
@@ -4212,25 +4189,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
         <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H89">
         <v>26</v>
@@ -4250,25 +4227,25 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
         <v>28</v>
       </c>
-      <c r="F90" t="s">
-        <v>29</v>
-      </c>
       <c r="G90" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H90">
         <v>16</v>
@@ -4288,25 +4265,25 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H91">
         <v>16</v>
@@ -4326,25 +4303,25 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
         <v>35</v>
       </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
-        <v>16</v>
-      </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H92">
         <v>20</v>
@@ -4364,25 +4341,25 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H93">
         <v>26</v>
@@ -4402,25 +4379,25 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H94">
         <v>26</v>
@@ -4440,25 +4417,25 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H95">
         <v>16</v>
@@ -4478,25 +4455,25 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H96">
         <v>20</v>
@@ -4516,25 +4493,25 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H97">
         <v>26</v>
@@ -4554,25 +4531,25 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>16</v>
@@ -4592,25 +4569,25 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H99">
         <v>16</v>
@@ -4630,10 +4607,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
@@ -4642,13 +4619,13 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
         <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H100">
         <v>20</v>
@@ -4671,22 +4648,22 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
         <v>34</v>
       </c>
-      <c r="C101" t="s">
-        <v>52</v>
-      </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
         <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H101">
         <v>16</v>
@@ -4712,19 +4689,19 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H102">
         <v>20</v>
@@ -4750,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -4762,7 +4739,7 @@
         <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H103">
         <v>26</v>
@@ -4788,19 +4765,19 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H104">
         <v>26</v>
@@ -4823,22 +4800,22 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H105">
         <v>20</v>
@@ -4864,19 +4841,19 @@
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H106">
         <v>20</v>
@@ -4902,19 +4879,19 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H107">
         <v>26</v>
@@ -4940,19 +4917,19 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
         <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H108">
         <v>20</v>
@@ -4975,22 +4952,22 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H109">
         <v>20</v>
@@ -5013,16 +4990,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -5051,22 +5028,22 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H111">
         <v>26</v>
@@ -5092,19 +5069,19 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G112" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H112">
         <v>16</v>
@@ -5127,22 +5104,22 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
         <v>31</v>
       </c>
-      <c r="C113" t="s">
-        <v>63</v>
-      </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
         <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H113">
         <v>26</v>
@@ -5165,22 +5142,22 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H114">
         <v>26</v>
@@ -5206,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -5218,7 +5195,7 @@
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H115">
         <v>26</v>
@@ -5244,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
@@ -5256,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H116">
         <v>26</v>
@@ -5279,22 +5256,22 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
         <v>23</v>
       </c>
       <c r="G117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H117">
         <v>16</v>
@@ -5320,19 +5297,19 @@
         <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H118">
         <v>20</v>
@@ -5355,22 +5332,22 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H119">
         <v>16</v>
@@ -5402,13 +5379,13 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>23</v>
       </c>
       <c r="G120" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H120">
         <v>16</v>
@@ -5431,22 +5408,22 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H121">
         <v>26</v>
@@ -5472,19 +5449,19 @@
         <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
         <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H122">
         <v>26</v>
@@ -5507,10 +5484,10 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -5522,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H123">
         <v>20</v>
@@ -5542,13 +5519,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -5560,7 +5537,7 @@
         <v>23</v>
       </c>
       <c r="G124" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H124">
         <v>26</v>
@@ -5580,25 +5557,25 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
         <v>34</v>
       </c>
-      <c r="C125" t="s">
-        <v>40</v>
-      </c>
       <c r="D125" t="s">
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>26</v>
@@ -5618,25 +5595,25 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H126">
         <v>16</v>
@@ -5656,25 +5633,25 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
       </c>
       <c r="G127" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H127">
         <v>20</v>
@@ -5694,25 +5671,25 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
         <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
         <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H128">
         <v>20</v>
@@ -5732,25 +5709,25 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
         <v>23</v>
       </c>
       <c r="G129" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H129">
         <v>16</v>
@@ -5770,25 +5747,25 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H130">
         <v>16</v>
@@ -5808,13 +5785,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
@@ -5826,7 +5803,7 @@
         <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H131">
         <v>26</v>
@@ -5846,25 +5823,25 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H132">
         <v>26</v>
@@ -5884,19 +5861,19 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
         <v>23</v>
@@ -5922,25 +5899,25 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
         <v>23</v>
       </c>
       <c r="G134" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H134">
         <v>20</v>
@@ -5960,25 +5937,25 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D135" t="s">
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G135" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H135">
         <v>16</v>
@@ -5998,13 +5975,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -6013,10 +5990,10 @@
         <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G136" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H136">
         <v>16</v>
@@ -6036,10 +6013,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
@@ -6048,13 +6025,13 @@
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H137">
         <v>16</v>
@@ -6074,25 +6051,25 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H138">
         <v>26</v>
@@ -6112,13 +6089,13 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
@@ -6130,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H139">
         <v>16</v>
@@ -6150,25 +6127,25 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G140" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H140">
         <v>20</v>
@@ -6188,25 +6165,25 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G141" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H141">
         <v>26</v>
@@ -6226,25 +6203,25 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
         <v>23</v>
       </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H142">
         <v>16</v>
@@ -6264,25 +6241,25 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
         <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H143">
         <v>26</v>
@@ -6302,13 +6279,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
         <v>27</v>
@@ -6320,7 +6297,7 @@
         <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H144">
         <v>16</v>
@@ -6340,25 +6317,25 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
         <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H145">
         <v>16</v>
@@ -6378,25 +6355,25 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H146">
         <v>16</v>
@@ -6416,25 +6393,25 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H147">
         <v>16</v>
@@ -6454,25 +6431,25 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
         <v>16</v>
@@ -6492,25 +6469,25 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
         <v>28</v>
       </c>
-      <c r="F149" t="s">
-        <v>29</v>
-      </c>
       <c r="G149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H149">
         <v>26</v>
@@ -6530,25 +6507,25 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
         <v>23</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H150">
         <v>20</v>
@@ -6568,25 +6545,25 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>20</v>
@@ -6606,25 +6583,25 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H152">
         <v>26</v>
@@ -6644,25 +6621,25 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H153">
         <v>16</v>
@@ -6682,25 +6659,25 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G154" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H154">
         <v>20</v>
@@ -6720,25 +6697,25 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H155">
         <v>26</v>
@@ -6758,25 +6735,25 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C156" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D156" t="s">
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
         <v>23</v>
       </c>
       <c r="G156" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H156">
         <v>20</v>
@@ -6796,25 +6773,25 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F157" t="s">
         <v>23</v>
       </c>
       <c r="G157" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H157">
         <v>16</v>
@@ -6834,13 +6811,13 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -6852,7 +6829,7 @@
         <v>23</v>
       </c>
       <c r="G158" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H158">
         <v>26</v>
@@ -6872,25 +6849,25 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H159">
         <v>16</v>
@@ -6910,25 +6887,25 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B160" t="s">
         <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
       </c>
       <c r="G160" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H160">
         <v>16</v>
@@ -6948,25 +6925,25 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
         <v>17</v>
       </c>
       <c r="G161" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H161">
         <v>26</v>
@@ -6986,13 +6963,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -7001,10 +6978,10 @@
         <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G162" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H162">
         <v>20</v>
@@ -7024,13 +7001,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C163" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
@@ -7042,7 +7019,7 @@
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H163">
         <v>16</v>
@@ -7062,25 +7039,25 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
         <v>23</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>26</v>
@@ -7100,25 +7077,25 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C165" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
         <v>23</v>
       </c>
       <c r="G165" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H165">
         <v>26</v>
@@ -7138,25 +7115,25 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
         <v>23</v>
       </c>
       <c r="G166" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H166">
         <v>20</v>
@@ -7176,25 +7153,25 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
         <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H167">
         <v>20</v>
@@ -7214,25 +7191,25 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G168" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H168">
         <v>20</v>
@@ -7252,25 +7229,25 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" t="s">
         <v>28</v>
       </c>
-      <c r="F169" t="s">
-        <v>29</v>
-      </c>
       <c r="G169" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H169">
         <v>16</v>
@@ -7290,25 +7267,25 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
+        <v>67</v>
+      </c>
+      <c r="D170" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" t="s">
         <v>35</v>
-      </c>
-      <c r="D170" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170" t="s">
-        <v>22</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
       </c>
       <c r="G170" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H170">
         <v>20</v>
@@ -7328,25 +7305,25 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H171">
         <v>16</v>
@@ -7366,10 +7343,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
         <v>63</v>
@@ -7378,13 +7355,13 @@
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
       </c>
       <c r="G172" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H172">
         <v>16</v>
@@ -7404,25 +7381,25 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G173" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H173">
         <v>20</v>
@@ -7442,13 +7419,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
@@ -7460,7 +7437,7 @@
         <v>23</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>16</v>
@@ -7480,25 +7457,25 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C175" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D175" t="s">
         <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G175" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H175">
         <v>16</v>
@@ -7518,10 +7495,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C176" t="s">
         <v>26</v>
@@ -7530,13 +7507,13 @@
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H176">
         <v>20</v>
@@ -7556,25 +7533,25 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G177" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H177">
         <v>16</v>
@@ -7594,25 +7571,25 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
       </c>
       <c r="G178" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H178">
         <v>16</v>
@@ -7632,25 +7609,25 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F179" t="s">
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H179">
         <v>20</v>
@@ -7670,25 +7647,25 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
         <v>27</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F180" t="s">
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>20</v>
@@ -7708,25 +7685,25 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G181" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H181">
         <v>16</v>
@@ -7746,10 +7723,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -7758,13 +7735,13 @@
         <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H182">
         <v>16</v>
@@ -7784,25 +7761,25 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C183" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D183" t="s">
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H183">
         <v>26</v>
@@ -7822,25 +7799,25 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F184" t="s">
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H184">
         <v>16</v>
@@ -7866,7 +7843,7 @@
         <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -7875,10 +7852,10 @@
         <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G185" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H185">
         <v>26</v>
@@ -7901,22 +7878,22 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G186" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H186">
         <v>20</v>
@@ -7939,22 +7916,22 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H187">
         <v>20</v>
@@ -7980,19 +7957,19 @@
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G188" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H188">
         <v>20</v>
@@ -8015,22 +7992,22 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G189" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H189">
         <v>20</v>
@@ -8056,19 +8033,19 @@
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
       </c>
       <c r="G190" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H190">
         <v>26</v>
@@ -8091,22 +8068,22 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G191" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H191">
         <v>16</v>
@@ -8132,19 +8109,19 @@
         <v>39</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G192" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H192">
         <v>26</v>
@@ -8167,22 +8144,22 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
       </c>
       <c r="G193" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H193">
         <v>16</v>
@@ -8208,7 +8185,7 @@
         <v>39</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
@@ -8220,7 +8197,7 @@
         <v>23</v>
       </c>
       <c r="G194" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H194">
         <v>20</v>
@@ -8243,22 +8220,22 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
       <c r="E195" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195" t="s">
         <v>28</v>
       </c>
-      <c r="F195" t="s">
-        <v>29</v>
-      </c>
       <c r="G195" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H195">
         <v>16</v>
@@ -8278,25 +8255,25 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
       </c>
       <c r="E196" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G196" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H196">
         <v>16</v>
@@ -8316,25 +8293,25 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B197" t="s">
         <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F197" t="s">
         <v>17</v>
       </c>
       <c r="G197" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H197">
         <v>20</v>
@@ -8354,13 +8331,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
@@ -8372,7 +8349,7 @@
         <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H198">
         <v>20</v>
@@ -8392,25 +8369,25 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G199" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H199">
         <v>26</v>
@@ -8430,25 +8407,25 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" t="s">
         <v>28</v>
       </c>
-      <c r="F200" t="s">
-        <v>29</v>
-      </c>
       <c r="G200" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H200">
         <v>26</v>
@@ -8468,25 +8445,25 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F201" t="s">
         <v>23</v>
       </c>
       <c r="G201" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H201">
         <v>26</v>
@@ -8506,25 +8483,25 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
         <v>17</v>
       </c>
       <c r="G202" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H202">
         <v>20</v>
@@ -8544,25 +8521,25 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C203" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" t="s">
         <v>28</v>
       </c>
-      <c r="F203" t="s">
-        <v>29</v>
-      </c>
       <c r="G203" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H203">
         <v>26</v>
@@ -8582,25 +8559,25 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C204" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
         <v>27</v>
       </c>
       <c r="E204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F204" t="s">
         <v>28</v>
       </c>
-      <c r="F204" t="s">
-        <v>29</v>
-      </c>
       <c r="G204" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H204">
         <v>16</v>
@@ -8620,25 +8597,25 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F205" t="s">
         <v>23</v>
       </c>
       <c r="G205" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H205">
         <v>16</v>
@@ -8658,25 +8635,25 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
         <v>56</v>
       </c>
-      <c r="B206" t="s">
-        <v>34</v>
-      </c>
-      <c r="C206" t="s">
-        <v>35</v>
-      </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
         <v>23</v>
       </c>
       <c r="G206" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H206">
         <v>26</v>
@@ -8696,25 +8673,25 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
       </c>
       <c r="E207" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207" t="s">
         <v>28</v>
       </c>
-      <c r="F207" t="s">
-        <v>29</v>
-      </c>
       <c r="G207" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H207">
         <v>16</v>
@@ -8734,25 +8711,25 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B208" t="s">
         <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H208">
         <v>26</v>
@@ -8772,25 +8749,25 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B209" t="s">
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F209" t="s">
         <v>23</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>16</v>
@@ -8810,25 +8787,25 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B210" t="s">
         <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H210">
         <v>26</v>
@@ -8848,25 +8825,25 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
         <v>39</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G211" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H211">
         <v>26</v>
@@ -8886,25 +8863,25 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
         <v>39</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
         <v>15</v>
       </c>
       <c r="E212" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F212" t="s">
         <v>17</v>
       </c>
       <c r="G212" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H212">
         <v>16</v>
@@ -8924,25 +8901,25 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
       </c>
       <c r="C213" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
       </c>
       <c r="E213" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F213" t="s">
         <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H213">
         <v>20</v>
@@ -8962,13 +8939,13 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" t="s">
+        <v>46</v>
+      </c>
+      <c r="C214" t="s">
         <v>56</v>
-      </c>
-      <c r="B214" t="s">
-        <v>49</v>
-      </c>
-      <c r="C214" t="s">
-        <v>46</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -8980,7 +8957,7 @@
         <v>17</v>
       </c>
       <c r="G214" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H214">
         <v>20</v>
@@ -9000,25 +8977,25 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
       </c>
       <c r="C215" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G215" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H215">
         <v>26</v>
@@ -9038,13 +9015,13 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B216" t="s">
         <v>39</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
@@ -9053,10 +9030,10 @@
         <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G216" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H216">
         <v>16</v>
@@ -9076,25 +9053,25 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" t="s">
         <v>50</v>
       </c>
-      <c r="D217" t="s">
-        <v>27</v>
-      </c>
-      <c r="E217" t="s">
-        <v>22</v>
-      </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G217" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H217">
         <v>16</v>
@@ -9114,25 +9091,25 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
       </c>
       <c r="C218" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D218" t="s">
         <v>27</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H218">
         <v>26</v>
@@ -9152,25 +9129,25 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" t="s">
         <v>56</v>
       </c>
-      <c r="B219" t="s">
-        <v>31</v>
-      </c>
-      <c r="C219" t="s">
-        <v>50</v>
-      </c>
       <c r="D219" t="s">
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
       </c>
       <c r="G219" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H219">
         <v>16</v>
@@ -9190,25 +9167,25 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B220" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D220" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
         <v>23</v>
       </c>
       <c r="G220" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H220">
         <v>26</v>
@@ -9228,13 +9205,13 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B221" t="s">
         <v>39</v>
       </c>
       <c r="C221" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -9246,7 +9223,7 @@
         <v>17</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H221">
         <v>16</v>
@@ -9266,25 +9243,25 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D222" t="s">
         <v>27</v>
       </c>
       <c r="E222" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
         <v>23</v>
       </c>
       <c r="G222" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H222">
         <v>16</v>
@@ -9304,13 +9281,13 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
       </c>
       <c r="C223" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D223" t="s">
         <v>27</v>
@@ -9322,7 +9299,7 @@
         <v>17</v>
       </c>
       <c r="G223" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H223">
         <v>16</v>
@@ -9342,25 +9319,25 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G224" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H224">
         <v>16</v>
@@ -9380,13 +9357,13 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
@@ -9395,10 +9372,10 @@
         <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G225" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H225">
         <v>16</v>
@@ -9418,25 +9395,25 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B226" t="s">
         <v>20</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F226" t="s">
         <v>23</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H226">
         <v>26</v>
@@ -9456,25 +9433,25 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B227" t="s">
         <v>39</v>
       </c>
       <c r="C227" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F227" t="s">
         <v>23</v>
       </c>
       <c r="G227" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H227">
         <v>16</v>
@@ -9494,13 +9471,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C228" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -9512,7 +9489,7 @@
         <v>17</v>
       </c>
       <c r="G228" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H228">
         <v>26</v>
@@ -9532,25 +9509,25 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C229" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F229" t="s">
         <v>23</v>
       </c>
       <c r="G229" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H229">
         <v>16</v>
@@ -9570,13 +9547,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B230" t="s">
         <v>39</v>
       </c>
       <c r="C230" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
@@ -9588,7 +9565,7 @@
         <v>23</v>
       </c>
       <c r="G230" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H230">
         <v>26</v>
@@ -9608,25 +9585,25 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B231" t="s">
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
       </c>
       <c r="E231" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F231" t="s">
         <v>23</v>
       </c>
       <c r="G231" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H231">
         <v>16</v>
@@ -9646,13 +9623,13 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D232" t="s">
         <v>27</v>
@@ -9661,10 +9638,10 @@
         <v>16</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G232" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H232">
         <v>16</v>
@@ -9684,25 +9661,25 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D233" t="s">
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G233" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H233">
         <v>16</v>
@@ -9722,25 +9699,25 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C234" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
         <v>27</v>
       </c>
       <c r="E234" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234" t="s">
         <v>28</v>
       </c>
-      <c r="F234" t="s">
-        <v>29</v>
-      </c>
       <c r="G234" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H234">
         <v>16</v>
@@ -9760,7 +9737,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -9772,13 +9749,13 @@
         <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F235" t="s">
         <v>23</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>20</v>
@@ -9798,25 +9775,25 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B236" t="s">
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D236" t="s">
         <v>27</v>
       </c>
       <c r="E236" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G236" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H236">
         <v>16</v>
